--- a/Excel/CarPositivecash.xlsx
+++ b/Excel/CarPositivecash.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="115">
   <si>
     <t>Username</t>
   </si>
@@ -267,9 +267,6 @@
     <t>1</t>
   </si>
   <si>
-    <t>BU111 - Mr.Comp 1 Branch 1 User 1</t>
-  </si>
-  <si>
     <t>06</t>
   </si>
   <si>
@@ -358,6 +355,12 @@
   </si>
   <si>
     <t>AE Branch 01 - Dubai</t>
+  </si>
+  <si>
+    <t>BU111 - Mr</t>
+  </si>
+  <si>
+    <t>BU111 - Mr.Comp 1 Branch</t>
   </si>
 </sst>
 </file>
@@ -738,8 +741,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BR2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AZ1" workbookViewId="0">
-      <selection activeCell="AZ12" sqref="AZ12"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="U7" sqref="U7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1072,13 +1075,13 @@
         <v>82</v>
       </c>
       <c r="S2" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="T2" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="U2" s="8" t="s">
         <v>83</v>
-      </c>
-      <c r="T2" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="U2" s="8" t="s">
-        <v>84</v>
       </c>
       <c r="V2" s="10" t="s">
         <v>74</v>
@@ -1090,7 +1093,7 @@
         <v>77</v>
       </c>
       <c r="Y2" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Z2" s="10" t="s">
         <v>74</v>
@@ -1099,49 +1102,49 @@
         <v>75</v>
       </c>
       <c r="AB2" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC2" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="AD2" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="AC2" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="AD2" s="8" t="s">
+      <c r="AE2" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="AE2" s="8" t="s">
+      <c r="AF2" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="AF2" s="10" t="s">
+      <c r="AG2" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="AG2" s="7" t="s">
+      <c r="AH2" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="AH2" s="7" t="s">
+      <c r="AI2" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="AI2" s="7" t="s">
+      <c r="AJ2" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="AJ2" s="7" t="s">
+      <c r="AK2" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="AK2" s="7" t="s">
+      <c r="AL2" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="AM2" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="AL2" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="AM2" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="AN2" s="8" t="s">
         <v>75</v>
       </c>
       <c r="AO2" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AP2" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AQ2" s="8" t="s">
         <v>75</v>
@@ -1150,37 +1153,37 @@
         <v>82</v>
       </c>
       <c r="AS2" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AT2" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="AT2" s="8" t="s">
+      <c r="AU2" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="AU2" s="7" t="s">
+      <c r="AV2" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="AV2" s="7" t="s">
+      <c r="AW2" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="AW2" s="7" t="s">
+      <c r="AX2" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="AX2" s="8" t="s">
+      <c r="AY2" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="AY2" s="8" t="s">
+      <c r="AZ2" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="AZ2" s="7" t="s">
+      <c r="BA2" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="BA2" s="9" t="s">
+      <c r="BB2" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="BB2" s="9" t="s">
+      <c r="BC2" s="9" t="s">
         <v>106</v>
-      </c>
-      <c r="BC2" s="9" t="s">
-        <v>107</v>
       </c>
       <c r="BD2" s="9" t="s">
         <v>82</v>
@@ -1192,40 +1195,40 @@
         <v>82</v>
       </c>
       <c r="BG2" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="BH2" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="BH2" s="9" t="s">
+      <c r="BI2" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="BI2" s="10" t="s">
+      <c r="BJ2" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="BK2" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="BJ2" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="BK2" s="10" t="s">
+      <c r="BL2" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="BL2" s="10" t="s">
+      <c r="BM2" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="BN2" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="BO2" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="BP2" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="BQ2" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="BR2" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="BM2" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="BN2" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="BO2" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="BP2" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="BQ2" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="BR2" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
   </sheetData>
